--- a/Февраль 2025.xlsx
+++ b/Февраль 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Дата</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Верхний уровень: работа над циклограммой и БД</t>
+  </si>
+  <si>
+    <t>Отсутствовал</t>
+  </si>
+  <si>
+    <t>Верхний уровень: работа над циклограммой и БД, с 12.00 до 13.30 отсутствовал на рабочем месте т.к. ездил в коледж за повесткой</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -173,12 +179,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,9 +509,10 @@
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +537,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45689</v>
       </c>
@@ -534,7 +550,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4">
@@ -543,8 +559,9 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45690</v>
       </c>
@@ -553,7 +570,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4">
@@ -562,8 +579,9 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45691</v>
       </c>
@@ -576,7 +594,7 @@
       <c r="D4" s="4">
         <v>0.375</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="4">
@@ -585,8 +603,9 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45692</v>
       </c>
@@ -599,7 +618,7 @@
       <c r="D5" s="4">
         <v>0.375</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4">
@@ -608,8 +627,9 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45693</v>
       </c>
@@ -622,7 +642,7 @@
       <c r="D6" s="4">
         <v>0.375</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4">
@@ -631,8 +651,9 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45694</v>
       </c>
@@ -645,7 +666,7 @@
       <c r="D7" s="4">
         <v>0.375</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4">
@@ -654,8 +675,9 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45695</v>
       </c>
@@ -668,7 +690,7 @@
       <c r="D8" s="4">
         <v>0.375</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4">
@@ -680,8 +702,9 @@
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45696</v>
       </c>
@@ -690,7 +713,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="4">
@@ -699,8 +722,9 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45697</v>
       </c>
@@ -709,7 +733,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="4">
@@ -718,8 +742,9 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45698</v>
       </c>
@@ -732,7 +757,7 @@
       <c r="D11" s="4">
         <v>0.375</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4">
@@ -741,8 +766,9 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45699</v>
       </c>
@@ -755,7 +781,7 @@
       <c r="D12" s="4">
         <v>0.375</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="4">
@@ -764,8 +790,9 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45700</v>
       </c>
@@ -778,7 +805,7 @@
       <c r="D13" s="4">
         <v>0.375</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="4">
@@ -787,8 +814,9 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45701</v>
       </c>
@@ -801,7 +829,7 @@
       <c r="D14" s="4">
         <v>0.375</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="4">
@@ -810,8 +838,9 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45702</v>
       </c>
@@ -824,7 +853,7 @@
       <c r="D15" s="4">
         <v>0.375</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="4">
@@ -836,8 +865,9 @@
         <v>0</v>
       </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45703</v>
       </c>
@@ -846,7 +876,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4">
@@ -855,8 +885,9 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45704</v>
       </c>
@@ -865,7 +896,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="4">
@@ -874,8 +905,9 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45705</v>
       </c>
@@ -888,7 +920,7 @@
       <c r="D18" s="4">
         <v>0.375</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4">
@@ -897,8 +929,9 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45706</v>
       </c>
@@ -911,7 +944,7 @@
       <c r="D19" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="4">
@@ -920,8 +953,9 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45707</v>
       </c>
@@ -934,7 +968,7 @@
       <c r="D20" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4">
@@ -943,8 +977,9 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45708</v>
       </c>
@@ -957,7 +992,7 @@
       <c r="D21" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="4">
@@ -966,8 +1001,9 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45709</v>
       </c>
@@ -980,7 +1016,7 @@
       <c r="D22" s="4">
         <v>0.375</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4">
@@ -992,8 +1028,9 @@
         <v>0.87499999999999989</v>
       </c>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45710</v>
       </c>
@@ -1002,7 +1039,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="4">
@@ -1011,8 +1048,9 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45711</v>
       </c>
@@ -1021,7 +1059,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="4">
@@ -1030,8 +1068,9 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45712</v>
       </c>
@@ -1042,17 +1081,22 @@
         <v>0.375</v>
       </c>
       <c r="D25" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D25-C25-I25</f>
+        <v>0.22916666666666663</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="13">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45713</v>
       </c>
@@ -1065,15 +1109,16 @@
       <c r="D26" s="4">
         <v>0.375</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45714</v>
       </c>
@@ -1086,15 +1131,16 @@
       <c r="D27" s="4">
         <v>0.375</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45715</v>
       </c>
@@ -1107,15 +1153,16 @@
       <c r="D28" s="4">
         <v>0.375</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45716</v>
       </c>
@@ -1128,52 +1175,53 @@
       <c r="D29" s="4">
         <v>0.375</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f>SUM(F25:F29)</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="10">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="9">
         <f>SUM(F2:F29)</f>
-        <v>0.87499999999999989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
+        <v>1.1041666666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Февраль 2025.xlsx
+++ b/Февраль 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Дата</t>
   </si>
@@ -73,7 +73,10 @@
     <t>Отсутствовал</t>
   </si>
   <si>
-    <t>Верхний уровень: работа над циклограммой и БД, с 12.00 до 13.30 отсутствовал на рабочем месте т.к. ездил в коледж за повесткой</t>
+    <t>До вычета обедов</t>
+  </si>
+  <si>
+    <t>Верхний уровень: работа над циклограммой и БД, с 12.00 до 13.30 отсутствовал на рабочем месте т.к. ездил в колледж за повесткой</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,7 +1087,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4">
         <f>D25-C25-I25</f>
@@ -1107,12 +1110,14 @@
         <v>0.375</v>
       </c>
       <c r="D26" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
@@ -1129,12 +1134,14 @@
         <v>0.375</v>
       </c>
       <c r="D27" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E27" s="14"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
@@ -1151,12 +1158,14 @@
         <v>0.375</v>
       </c>
       <c r="D28" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E28" s="14"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
@@ -1175,14 +1184,16 @@
       <c r="D29" s="4">
         <v>0.375</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f>SUM(F25:F29)</f>
-        <v>0.22916666666666663</v>
+        <v>0.72916666666666652</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1197,7 +1208,10 @@
       <c r="G30" s="12"/>
       <c r="H30" s="9">
         <f>SUM(F2:F29)</f>
-        <v>1.1041666666666665</v>
+        <v>1.6041666666666661</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
